--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,16 +515,16 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,16 +675,16 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -515,16 +515,16 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N2" t="n">
         <v>15000</v>
@@ -537,7 +537,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,20 +604,20 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,16 +675,16 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
         <v>15000</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44902</v>
+        <v>45250</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -520,33 +520,33 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -600,20 +600,20 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -675,7 +675,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,20 +684,20 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,7 +764,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
         <v>15000</v>
@@ -789,6 +789,86 @@
         <v>1500</v>
       </c>
       <c r="T5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44505</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T6" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>45251</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -680,20 +680,20 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,20 +764,20 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -869,6 +869,86 @@
         <v>1500</v>
       </c>
       <c r="T6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44505</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>50</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45250</v>
+        <v>45257</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45251</v>
+        <v>45250</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
         <v>20000</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>45251</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -680,33 +680,33 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -760,20 +760,20 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -949,6 +949,86 @@
         <v>1500</v>
       </c>
       <c r="T7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44505</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>50</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T8" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44505</v>
+        <v>45264</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1029,6 +1029,86 @@
         <v>1500</v>
       </c>
       <c r="T8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44505</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>50</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/bandeja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="T9" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45250</v>
+        <v>44902</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P3" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45251</v>
+        <v>44902</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,29 +684,29 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>13000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1300</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44902</v>
+        <v>45251</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,20 +844,20 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P6" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45264</v>
+        <v>44505</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44505</v>
+        <v>45264</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -995,7 +995,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44505</v>
+        <v>45250</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P9" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1102,11 +1102,11 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -524,29 +524,29 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P2" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T2" t="n">
         <v>10</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44902</v>
+        <v>45251</v>
       </c>
       <c r="E3" t="n">
         <v>7</v>
@@ -600,33 +600,33 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T3" t="n">
         <v>10</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44902</v>
+        <v>45257</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,29 +684,29 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>13000</v>
+        <v>20000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45251</v>
+        <v>44505</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44505</v>
+        <v>44902</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45264</v>
+        <v>44902</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1004,16 +1004,16 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="N8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="O8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="P8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45257</v>
+        <v>45274</v>
       </c>
       <c r="E4" t="n">
         <v>7</v>
@@ -684,29 +684,29 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="T4" t="n">
         <v>10</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44505</v>
+        <v>45257</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -767,13 +767,13 @@
         <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
         <v>15000</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E7" t="n">
         <v>7</v>
@@ -920,11 +920,11 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -937,7 +937,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1000,20 +1000,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T8" t="n">
         <v>10</v>
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45250</v>
+        <v>44902</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
@@ -1084,31 +1084,111 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>100</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>20000</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O10" t="n">
         <v>20000</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P10" t="n">
         <v>20000</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>2000</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>10</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Macroferia Regional de Talca - Níspero.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45257</v>
+        <v>45280</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
@@ -760,33 +760,33 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="P5" t="n">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>$/bandeja 10 kilos</t>
+          <t>$/caja 10 kilos</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="T5" t="n">
         <v>10</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44505</v>
+        <v>45257</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
@@ -835,7 +835,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Californiana(o)</t>
+          <t>Golden Nugget</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="O6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="T6" t="n">
         <v>10</v>
@@ -915,7 +915,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Golden Nugget</t>
+          <t>Californiana(o)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N7" t="n">
         <v>15000</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44902</v>
+        <v>44505</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -1000,11 +1000,11 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Especial</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N8" t="n">
         <v>15000</v>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>$/caja 10 kilos</t>
+          <t>$/bandeja 10 kilos</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1080,20 +1080,20 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Especial</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="N9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="O9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="P9" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="T9" t="n">
         <v>10</v>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45250</v>
+        <v>44902</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
@@ -1164,31 +1164,111 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>70</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>$/caja 10 kilos</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>1300</v>
+      </c>
+      <c r="T10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Macroferia Regional de Talca</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100104004</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Níspero</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Golden Nugget</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>100</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N11" t="n">
         <v>20000</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O11" t="n">
         <v>20000</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P11" t="n">
         <v>20000</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>$/bandeja 10 kilos</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S10" t="n">
+      <c r="S11" t="n">
         <v>2000</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T11" t="n">
         <v>10</v>
       </c>
     </row>
